--- a/doc/2-sat_custom.xlsx
+++ b/doc/2-sat_custom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lab\sat\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06EA7355-38F0-4BF8-8020-3D2C996F8A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4A72AC-37C8-4563-AA60-F8ACD92C0FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="430" xr2:uid="{D93E0C27-51C7-4325-91F9-368776D76664}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="430" activeTab="1" xr2:uid="{D93E0C27-51C7-4325-91F9-368776D76664}"/>
   </bookViews>
   <sheets>
     <sheet name="Algoritmus" sheetId="2" r:id="rId1"/>
@@ -210,9 +210,6 @@
     <t>A fázisok száma (substitute) max. N</t>
   </si>
   <si>
-    <t>Minden fázisban 1 Dedup van (C lépés)</t>
-  </si>
-  <si>
     <t>Következmény: Az algoritmus polinomiális N-ben, &lt; O(N^3)</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>Minden fázisban max. C darab One var művelet lehet és minden One var max. C lépés</t>
+  </si>
+  <si>
+    <t>Minden fázisban 1 Dedup van, ami max. C^2 lépés</t>
   </si>
 </sst>
 </file>
@@ -798,10 +798,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1123,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98DDF657-FA4E-4EB0-B316-61376ECD8166}">
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1160,7 +1156,7 @@
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>27</v>
@@ -1204,7 +1200,7 @@
     </row>
     <row r="2" spans="1:26" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>6</v>
@@ -1277,10 +1273,10 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="37">
         <v>1</v>
@@ -1331,7 +1327,7 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>42</v>
@@ -1358,7 +1354,7 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>25</v>
@@ -1844,8 +1840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0E3CD8-5E18-440C-B78C-3F10D23C8452}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1856,20 +1852,20 @@
   <sheetData>
     <row r="1" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="63" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="62" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" s="62" t="s">
-        <v>65</v>
       </c>
       <c r="H3" s="63"/>
       <c r="I3" s="63"/>
@@ -1881,7 +1877,7 @@
     </row>
     <row r="4" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
@@ -1893,7 +1889,7 @@
     </row>
     <row r="5" spans="1:19" s="62" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B5" s="62" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
@@ -1905,47 +1901,47 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C6" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C7" s="64" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C8" s="64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C9" s="64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B10" s="64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C11" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C12" s="64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="C13" s="64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -1960,25 +1956,25 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B19" s="64" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="65" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="65" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="64" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1987,12 +1983,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="d7b89d03-12c1-42c9-ad24-bde173af4239" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2243,17 +2238,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="d7b89d03-12c1-42c9-ad24-bde173af4239" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6F817C4-D7E1-407A-B6B1-CB4BFE8EBCF3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D364A406-87C3-4CED-82D5-8629713BE4F0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d7b89d03-12c1-42c9-ad24-bde173af4239"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="03d31503-fc1f-463f-9468-d254d239f1ad"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2278,18 +2283,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D364A406-87C3-4CED-82D5-8629713BE4F0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6F817C4-D7E1-407A-B6B1-CB4BFE8EBCF3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d7b89d03-12c1-42c9-ad24-bde173af4239"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="03d31503-fc1f-463f-9468-d254d239f1ad"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>